--- a/wip/res/optimal_N3_K2.xlsx
+++ b/wip/res/optimal_N3_K2.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tutorial\Desktop\FPL_Python_Optimization\wip\res\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F8FE6-6C82-4ECE-AC57-69337DC22D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
     <sheet name="AvgRating" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -518,8 +524,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +588,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -628,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,9 +674,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,6 +726,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,14 +919,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -934,7 +987,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -963,7 +1016,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -992,7 +1045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1074,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1103,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1219,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1277,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1253,7 +1306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1335,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,7 +1364,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1340,7 +1393,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +1422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,7 +1451,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1427,7 +1480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +1509,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +1538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1596,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,7 +1625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1630,7 +1683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1659,7 +1712,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1688,7 +1741,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1717,7 +1770,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1746,7 +1799,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1772,7 +1825,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1795,7 +1848,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1815,7 +1868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1832,7 +1885,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1846,7 +1899,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1857,7 +1910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1871,14 +1924,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,897 +1963,897 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>117.1709316341013</v>
+        <v>58.585465817050668</v>
       </c>
       <c r="C2">
-        <v>122.8733023114717</v>
+        <v>61.436651155735873</v>
       </c>
       <c r="D2">
-        <v>124.2059519395716</v>
+        <v>62.102975969785803</v>
       </c>
       <c r="E2">
-        <v>124.7621244338425</v>
+        <v>62.381062216921272</v>
       </c>
       <c r="F2">
-        <v>128.0976250266113</v>
+        <v>64.048812513305649</v>
       </c>
       <c r="G2">
-        <v>129.018917278731</v>
+        <v>64.509458639365491</v>
       </c>
       <c r="H2">
-        <v>128.6149788228635</v>
+        <v>64.307489411431732</v>
       </c>
       <c r="I2">
-        <v>129.8502696418696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>64.925134820934801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>120.3251990638123</v>
+        <v>60.16259953190616</v>
       </c>
       <c r="C3">
-        <v>122.938760816759</v>
+        <v>61.469380408379507</v>
       </c>
       <c r="D3">
-        <v>124.3581608690668</v>
+        <v>62.17908043453339</v>
       </c>
       <c r="E3">
-        <v>126.8100300614716</v>
+        <v>63.405015030735782</v>
       </c>
       <c r="F3">
-        <v>128.363425959868</v>
+        <v>64.181712979933977</v>
       </c>
       <c r="G3">
-        <v>128.3196348815968</v>
+        <v>64.15981744079842</v>
       </c>
       <c r="H3">
-        <v>129.6349539660673</v>
+        <v>64.817476983033643</v>
       </c>
       <c r="I3">
-        <v>129.0634058947826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>64.531702947391281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>122.6690795630467</v>
+        <v>61.334539781523347</v>
       </c>
       <c r="C4">
-        <v>126.2850547361807</v>
+        <v>63.142527368090363</v>
       </c>
       <c r="D4">
-        <v>126.542871042089</v>
+        <v>63.271435521044509</v>
       </c>
       <c r="E4">
-        <v>129.037752297651</v>
+        <v>64.518876148825512</v>
       </c>
       <c r="F4">
-        <v>128.3890191861846</v>
+        <v>64.194509593092292</v>
       </c>
       <c r="G4">
-        <v>129.6644685648578</v>
+        <v>64.8322342824289</v>
       </c>
       <c r="H4">
-        <v>129.2074825072701</v>
+        <v>64.603741253635064</v>
       </c>
       <c r="I4">
-        <v>129.009306360549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>64.504653180274516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>119.4895975518456</v>
+        <v>59.744798775922803</v>
       </c>
       <c r="C5">
-        <v>123.1310149959349</v>
+        <v>61.565507497967452</v>
       </c>
       <c r="D5">
-        <v>126.591920339533</v>
+        <v>63.295960169766524</v>
       </c>
       <c r="E5">
-        <v>124.7224054804636</v>
+        <v>62.361202740231811</v>
       </c>
       <c r="F5">
-        <v>126.5857837462007</v>
+        <v>63.292891873100373</v>
       </c>
       <c r="G5">
-        <v>126.4565100337467</v>
+        <v>63.228255016873369</v>
       </c>
       <c r="H5">
-        <v>127.9208463308423</v>
+        <v>63.960423165421133</v>
       </c>
       <c r="I5">
-        <v>127.5623393139177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>63.781169656958852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>120.5605249703831</v>
+        <v>60.280262485191557</v>
       </c>
       <c r="C6">
-        <v>125.8759760810705</v>
+        <v>62.937988040535231</v>
       </c>
       <c r="D6">
-        <v>124.3483692759748</v>
+        <v>62.174184637987388</v>
       </c>
       <c r="E6">
-        <v>126.5846499534162</v>
+        <v>63.292324976708109</v>
       </c>
       <c r="F6">
-        <v>126.653477115082</v>
+        <v>63.326738557541013</v>
       </c>
       <c r="G6">
-        <v>128.3621892705202</v>
+        <v>64.181094635260081</v>
       </c>
       <c r="H6">
-        <v>127.6480559478271</v>
+        <v>63.824027973913537</v>
       </c>
       <c r="I6">
-        <v>128.3566596205771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>64.17832981028856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>123.5328365156376</v>
+        <v>61.766418257818813</v>
       </c>
       <c r="C7">
-        <v>120.1729167028605</v>
+        <v>60.086458351430252</v>
       </c>
       <c r="D7">
-        <v>123.2319259710021</v>
+        <v>61.615962985501064</v>
       </c>
       <c r="E7">
-        <v>124.064650697136</v>
+        <v>62.03232534856798</v>
       </c>
       <c r="F7">
-        <v>125.2877219429233</v>
+        <v>62.643860971461663</v>
       </c>
       <c r="G7">
-        <v>125.7223560707277</v>
+        <v>62.861178035363828</v>
       </c>
       <c r="H7">
-        <v>127.4937085628912</v>
+        <v>63.746854281445593</v>
       </c>
       <c r="I7">
-        <v>128.1372411674936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>64.068620583746821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>118.52925414602</v>
+        <v>59.26462707300999</v>
       </c>
       <c r="C8">
-        <v>122.1571322470274</v>
+        <v>61.078566123513717</v>
       </c>
       <c r="D8">
-        <v>121.5390184409234</v>
+        <v>60.769509220461693</v>
       </c>
       <c r="E8">
-        <v>124.064593585521</v>
+        <v>62.032296792760512</v>
       </c>
       <c r="F8">
-        <v>124.9164110860336</v>
+        <v>62.458205543016803</v>
       </c>
       <c r="G8">
-        <v>126.855338277247</v>
+        <v>63.427669138623507</v>
       </c>
       <c r="H8">
-        <v>127.702516142257</v>
+        <v>63.851258071128512</v>
       </c>
       <c r="I8">
-        <v>127.4369338741318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>63.718466937065877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>117.3861086282076</v>
+        <v>58.693054314103797</v>
       </c>
       <c r="C9">
-        <v>116.3697845151865</v>
+        <v>58.184892257593233</v>
       </c>
       <c r="D9">
-        <v>120.6490382802739</v>
+        <v>60.324519140136942</v>
       </c>
       <c r="E9">
-        <v>121.1677318885881</v>
+        <v>60.58386594429404</v>
       </c>
       <c r="F9">
-        <v>125.4560235553749</v>
+        <v>62.728011777687428</v>
       </c>
       <c r="G9">
-        <v>126.8805488086898</v>
+        <v>63.440274404344912</v>
       </c>
       <c r="H9">
-        <v>125.8482571343011</v>
+        <v>62.924128567150547</v>
       </c>
       <c r="I9">
-        <v>126.2549576170308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>63.127478808515413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>118.3386254554513</v>
+        <v>59.169312727725661</v>
       </c>
       <c r="C10">
-        <v>122.0614996678043</v>
+        <v>61.030749833902171</v>
       </c>
       <c r="D10">
-        <v>122.7560514065624</v>
+        <v>61.37802570328121</v>
       </c>
       <c r="E10">
-        <v>126.996686097516</v>
+        <v>63.498343048757988</v>
       </c>
       <c r="F10">
-        <v>128.6251824200238</v>
+        <v>64.312591210011902</v>
       </c>
       <c r="G10">
-        <v>127.7713815642898</v>
+        <v>63.885690782144877</v>
       </c>
       <c r="H10">
-        <v>127.2670536557614</v>
+        <v>63.633526827880701</v>
       </c>
       <c r="I10">
-        <v>128.0484829465283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>64.024241473264141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>120.3280680904004</v>
+        <v>60.164034045200196</v>
       </c>
       <c r="C11">
-        <v>120.0352034266325</v>
+        <v>60.017601713316253</v>
       </c>
       <c r="D11">
-        <v>124.9760860029083</v>
+        <v>62.488043001454137</v>
       </c>
       <c r="E11">
-        <v>126.6438156250342</v>
+        <v>63.321907812517082</v>
       </c>
       <c r="F11">
-        <v>127.7249101967385</v>
+        <v>63.86245509836926</v>
       </c>
       <c r="G11">
-        <v>127.5111334926911</v>
+        <v>63.755566746345529</v>
       </c>
       <c r="H11">
-        <v>129.4056388886665</v>
+        <v>64.702819444333244</v>
       </c>
       <c r="I11">
-        <v>128.9817390923924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>64.49086954619618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>119.321105484331</v>
+        <v>59.660552742165521</v>
       </c>
       <c r="C12">
-        <v>123.2889139412654</v>
+        <v>61.644456970632717</v>
       </c>
       <c r="D12">
-        <v>124.0804992417784</v>
+        <v>62.04024962088922</v>
       </c>
       <c r="E12">
-        <v>126.8604231099104</v>
+        <v>63.430211554955179</v>
       </c>
       <c r="F12">
-        <v>127.3095785826655</v>
+        <v>63.654789291332769</v>
       </c>
       <c r="G12">
-        <v>129.3845571474963</v>
+        <v>64.692278573748126</v>
       </c>
       <c r="H12">
-        <v>129.0562750804795</v>
+        <v>64.52813754023974</v>
       </c>
       <c r="I12">
-        <v>129.1625042843211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>64.581252142160565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>120.0957426631136</v>
+        <v>60.047871331556792</v>
       </c>
       <c r="C13">
-        <v>119.5194308556593</v>
+        <v>59.759715427829647</v>
       </c>
       <c r="D13">
-        <v>123.0353890916335</v>
+        <v>61.517694545816767</v>
       </c>
       <c r="E13">
-        <v>123.5418581510822</v>
+        <v>61.770929075541098</v>
       </c>
       <c r="F13">
-        <v>128.315599550217</v>
+        <v>64.157799775108487</v>
       </c>
       <c r="G13">
-        <v>127.2019018026209</v>
+        <v>63.600950901310433</v>
       </c>
       <c r="H13">
-        <v>127.9379518592345</v>
+        <v>63.968975929617258</v>
       </c>
       <c r="I13">
-        <v>128.5961273698894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>64.29806368494468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>117.6981060553182</v>
+        <v>58.849053027659103</v>
       </c>
       <c r="C14">
-        <v>123.1207558546939</v>
+        <v>61.560377927346963</v>
       </c>
       <c r="D14">
-        <v>124.8342687623619</v>
+        <v>62.417134381180958</v>
       </c>
       <c r="E14">
-        <v>128.7126304687172</v>
+        <v>64.356315234358618</v>
       </c>
       <c r="F14">
-        <v>128.591026102673</v>
+        <v>64.295513051336485</v>
       </c>
       <c r="G14">
-        <v>129.2190521870578</v>
+        <v>64.609526093528913</v>
       </c>
       <c r="H14">
-        <v>128.7866784381906</v>
+        <v>64.393339219095296</v>
       </c>
       <c r="I14">
-        <v>130.0077629924978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>65.003881496248923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>120.8122188089521</v>
+        <v>60.406109404476048</v>
       </c>
       <c r="C15">
-        <v>124.9982963114253</v>
+        <v>62.499148155712632</v>
       </c>
       <c r="D15">
-        <v>129.101954370221</v>
+        <v>64.550977185110511</v>
       </c>
       <c r="E15">
-        <v>128.0640737609244</v>
+        <v>64.032036880462201</v>
       </c>
       <c r="F15">
-        <v>127.7182295266114</v>
+        <v>63.859114763305719</v>
       </c>
       <c r="G15">
-        <v>127.4194118916916</v>
+        <v>63.709705945845798</v>
       </c>
       <c r="H15">
-        <v>129.3040634271949</v>
+        <v>64.652031713597466</v>
       </c>
       <c r="I15">
-        <v>129.0050713885937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>64.502535694296853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>121.0355104482498</v>
+        <v>60.517755224124919</v>
       </c>
       <c r="C16">
-        <v>125.8095135792059</v>
+        <v>62.904756789602942</v>
       </c>
       <c r="D16">
-        <v>126.4546186408102</v>
+        <v>63.227309320405112</v>
       </c>
       <c r="E16">
-        <v>126.5862528051042</v>
+        <v>63.293126402552083</v>
       </c>
       <c r="F16">
-        <v>126.4064578968397</v>
+        <v>63.203228948419827</v>
       </c>
       <c r="G16">
-        <v>127.8341832632112</v>
+        <v>63.917091631605601</v>
       </c>
       <c r="H16">
-        <v>129.4461851278521</v>
+        <v>64.723092563926045</v>
       </c>
       <c r="I16">
-        <v>128.6313075546935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>64.315653777346768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>119.5264024629179</v>
+        <v>59.763201231458943</v>
       </c>
       <c r="C17">
-        <v>120.3656212957398</v>
+        <v>60.1828106478699</v>
       </c>
       <c r="D17">
-        <v>121.3080451294718</v>
+        <v>60.654022564735897</v>
       </c>
       <c r="E17">
-        <v>123.9108215825982</v>
+        <v>61.955410791299101</v>
       </c>
       <c r="F17">
-        <v>123.8427229135295</v>
+        <v>61.921361456764771</v>
       </c>
       <c r="G17">
-        <v>127.5070895847892</v>
+        <v>63.753544792394607</v>
       </c>
       <c r="H17">
-        <v>126.5084672257827</v>
+        <v>63.254233612891348</v>
       </c>
       <c r="I17">
-        <v>128.6274990511188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>64.313749525559416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>117.9455688128839</v>
+        <v>58.972784406441939</v>
       </c>
       <c r="C18">
-        <v>119.7286117257628</v>
+        <v>59.864305862881423</v>
       </c>
       <c r="D18">
-        <v>123.1678301502563</v>
+        <v>61.583915075128161</v>
       </c>
       <c r="E18">
-        <v>122.9167038698273</v>
+        <v>61.45835193491363</v>
       </c>
       <c r="F18">
-        <v>127.1357027927043</v>
+        <v>63.567851396352168</v>
       </c>
       <c r="G18">
-        <v>125.9484830173107</v>
+        <v>62.974241508655354</v>
       </c>
       <c r="H18">
-        <v>128.112397169033</v>
+        <v>64.056198584516494</v>
       </c>
       <c r="I18">
-        <v>126.7330807950073</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>63.366540397503648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>117.4463581865573</v>
+        <v>58.723179093278667</v>
       </c>
       <c r="C19">
-        <v>122.0116396332303</v>
+        <v>61.005819816615158</v>
       </c>
       <c r="D19">
-        <v>122.1694774315412</v>
+        <v>61.084738715770598</v>
       </c>
       <c r="E19">
-        <v>124.5067810675031</v>
+        <v>62.253390533751563</v>
       </c>
       <c r="F19">
-        <v>123.9804361897576</v>
+        <v>61.990218094878777</v>
       </c>
       <c r="G19">
-        <v>126.762167315365</v>
+        <v>63.38108365768251</v>
       </c>
       <c r="H19">
-        <v>125.6809890692218</v>
+        <v>62.840494534610883</v>
       </c>
       <c r="I19">
-        <v>124.2237694299706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>62.111884714985322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>122.0883289828466</v>
+        <v>61.044164491423309</v>
       </c>
       <c r="C20">
-        <v>122.2664538933311</v>
+        <v>61.133226946665559</v>
       </c>
       <c r="D20">
-        <v>125.4959482799627</v>
+        <v>62.747974139981373</v>
       </c>
       <c r="E20">
-        <v>124.7170180538497</v>
+        <v>62.358509026924843</v>
       </c>
       <c r="F20">
-        <v>125.726443799077</v>
+        <v>62.863221899538487</v>
       </c>
       <c r="G20">
-        <v>125.9263421364573</v>
+        <v>62.963171068228633</v>
       </c>
       <c r="H20">
-        <v>124.279947752041</v>
+        <v>62.139973876020491</v>
       </c>
       <c r="I20">
-        <v>128.0712475479935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>64.035623773996761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>123.4144259243438</v>
+        <v>61.707212962171923</v>
       </c>
       <c r="C21">
-        <v>123.2321481831648</v>
+        <v>61.616074091582412</v>
       </c>
       <c r="D21">
-        <v>123.7135190073098</v>
+        <v>61.856759503654906</v>
       </c>
       <c r="E21">
-        <v>124.9471766487739</v>
+        <v>62.473588324386959</v>
       </c>
       <c r="F21">
-        <v>126.4618914054459</v>
+        <v>63.230945702722927</v>
       </c>
       <c r="G21">
-        <v>124.542754064354</v>
+        <v>62.271377032176993</v>
       </c>
       <c r="H21">
-        <v>128.726108691822</v>
+        <v>64.36305434591101</v>
       </c>
       <c r="I21">
-        <v>127.8147565710188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>63.907378285509409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>122.7820211694022</v>
+        <v>61.3910105847011</v>
       </c>
       <c r="C22">
-        <v>121.8339481351775</v>
+        <v>60.916974067588768</v>
       </c>
       <c r="D22">
-        <v>122.5396212972127</v>
+        <v>61.269810648606359</v>
       </c>
       <c r="E22">
-        <v>125.1088805523314</v>
+        <v>62.554440276165707</v>
       </c>
       <c r="F22">
-        <v>124.1306513249702</v>
+        <v>62.065325662485122</v>
       </c>
       <c r="G22">
-        <v>126.2353057859645</v>
+        <v>63.117652892982257</v>
       </c>
       <c r="H22">
-        <v>125.4994481968341</v>
+        <v>62.749724098417033</v>
       </c>
       <c r="I22">
-        <v>129.3804167982511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>64.690208399125567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>117.8910573077103</v>
+        <v>58.945528653855149</v>
       </c>
       <c r="C23">
-        <v>118.1794230356202</v>
+        <v>59.08971151781008</v>
       </c>
       <c r="D23">
-        <v>123.4032967871404</v>
+        <v>61.70164839357021</v>
       </c>
       <c r="E23">
-        <v>122.5462933160842</v>
+        <v>61.273146658042087</v>
       </c>
       <c r="F23">
-        <v>125.17794955849</v>
+        <v>62.588974779244992</v>
       </c>
       <c r="G23">
-        <v>124.4822792991525</v>
+        <v>62.241139649576247</v>
       </c>
       <c r="H23">
-        <v>128.9074854004695</v>
+        <v>64.453742700234727</v>
       </c>
       <c r="I23">
-        <v>127.3574251577991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>63.678712578899543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>117.5209528778475</v>
+        <v>58.760476438923753</v>
       </c>
       <c r="C24">
-        <v>123.7097466705413</v>
+        <v>61.854873335270639</v>
       </c>
       <c r="D24">
-        <v>122.6200525285936</v>
+        <v>61.310026264296802</v>
       </c>
       <c r="E24">
-        <v>125.3931081972002</v>
+        <v>62.696554098600082</v>
       </c>
       <c r="F24">
-        <v>124.5673195238559</v>
+        <v>62.28365976192795</v>
       </c>
       <c r="G24">
-        <v>129.3403111800834</v>
+        <v>64.670155590041688</v>
       </c>
       <c r="H24">
-        <v>127.9329727027171</v>
+        <v>63.96648635135854</v>
       </c>
       <c r="I24">
-        <v>129.466507313798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>64.733253656899024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>117.9082714672388</v>
+        <v>58.95413573361941</v>
       </c>
       <c r="C25">
-        <v>118.1960619605444</v>
+        <v>59.098030980272199</v>
       </c>
       <c r="D25">
-        <v>121.6934775759705</v>
+        <v>60.846738787985238</v>
       </c>
       <c r="E25">
-        <v>121.3466625606071</v>
+        <v>60.673331280303557</v>
       </c>
       <c r="F25">
-        <v>127.2616040196169</v>
+        <v>63.630802009808463</v>
       </c>
       <c r="G25">
-        <v>126.9019445978775</v>
+        <v>63.45097229893873</v>
       </c>
       <c r="H25">
-        <v>128.5215114450647</v>
+        <v>64.260755722532338</v>
       </c>
       <c r="I25">
-        <v>128.150486666698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>64.075243333348979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>116.2614502056788</v>
+        <v>58.130725102839421</v>
       </c>
       <c r="C26">
-        <v>121.1168726636778</v>
+        <v>60.558436331838919</v>
       </c>
       <c r="D26">
-        <v>120.275030830822</v>
+        <v>60.137515415410988</v>
       </c>
       <c r="E26">
-        <v>125.1720891687063</v>
+        <v>62.586044584353147</v>
       </c>
       <c r="F26">
-        <v>127.576158452344</v>
+        <v>63.788079226172023</v>
       </c>
       <c r="G26">
-        <v>129.5376784974919</v>
+        <v>64.768839248745934</v>
       </c>
       <c r="H26">
-        <v>129.7886648548016</v>
+        <v>64.894332427400798</v>
       </c>
       <c r="I26">
-        <v>130.0712228584027</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>65.035611429201339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>119.4797310580362</v>
+        <v>59.739865529018097</v>
       </c>
       <c r="C27">
-        <v>117.4094587226493</v>
+        <v>58.704729361324652</v>
       </c>
       <c r="D27">
-        <v>123.859043149745</v>
+        <v>61.92952157487251</v>
       </c>
       <c r="E27">
-        <v>125.3461058786365</v>
+        <v>62.673052939318232</v>
       </c>
       <c r="F27">
-        <v>129.0885195281889</v>
+        <v>64.544259764094448</v>
       </c>
       <c r="G27">
-        <v>129.2392012710684</v>
+        <v>64.619600635534212</v>
       </c>
       <c r="H27">
-        <v>129.7118637448853</v>
+        <v>64.855931872442639</v>
       </c>
       <c r="I27">
-        <v>131.6982236856471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>65.849111842823532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>117.1771621218503</v>
+        <v>58.588581060925129</v>
       </c>
       <c r="C28">
-        <v>123.4079627976667</v>
+        <v>61.703981398833328</v>
       </c>
       <c r="D28">
-        <v>124.6543373199618</v>
+        <v>62.327168659980877</v>
       </c>
       <c r="E28">
-        <v>126.9326204702317</v>
+        <v>63.466310235115863</v>
       </c>
       <c r="F28">
-        <v>129.1421527497739</v>
+        <v>64.571076374886943</v>
       </c>
       <c r="G28">
-        <v>129.6860290979796</v>
+        <v>64.843014548989814</v>
       </c>
       <c r="H28">
-        <v>131.0157392609423</v>
+        <v>65.507869630471149</v>
       </c>
       <c r="I28">
-        <v>130.1267508123432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>65.063375406171602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>124.4577406592658</v>
+        <v>62.228870329632912</v>
       </c>
       <c r="C29">
-        <v>124.4880236213901</v>
+        <v>62.244011810695042</v>
       </c>
       <c r="D29">
-        <v>124.2978335344319</v>
+        <v>62.14891676721593</v>
       </c>
       <c r="E29">
-        <v>128.4626222393816</v>
+        <v>64.231311119690801</v>
       </c>
       <c r="F29">
-        <v>130.0442888838958</v>
+        <v>65.022144441947887</v>
       </c>
       <c r="G29">
-        <v>130.6190509178544</v>
+        <v>65.309525458927212</v>
       </c>
       <c r="H29">
-        <v>131.2671401836406</v>
+        <v>65.633570091820289</v>
       </c>
       <c r="I29">
-        <v>130.6215525314163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>65.310776265708142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>119.400657727615</v>
+        <v>59.700328863807499</v>
       </c>
       <c r="C30">
-        <v>121.2459788601416</v>
+        <v>60.622989430070803</v>
       </c>
       <c r="D30">
-        <v>125.1337319449262</v>
+        <v>62.566865972463077</v>
       </c>
       <c r="E30">
-        <v>127.9438222590008</v>
+        <v>63.971911129500377</v>
       </c>
       <c r="F30">
-        <v>130.0855259516465</v>
+        <v>65.042762975823237</v>
       </c>
       <c r="G30">
-        <v>130.0809568680732</v>
+        <v>65.040478434036586</v>
       </c>
       <c r="H30">
-        <v>130.216120110206</v>
+        <v>65.108060055102996</v>
       </c>
       <c r="I30">
-        <v>129.654440074583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>64.827220037291511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>120.3985865456953</v>
+        <v>60.199293272847648</v>
       </c>
       <c r="C31">
-        <v>124.6261257790438</v>
+        <v>62.313062889521923</v>
       </c>
       <c r="D31">
-        <v>127.1707925134261</v>
+        <v>63.585396256713047</v>
       </c>
       <c r="E31">
-        <v>129.049798204432</v>
+        <v>64.524899102215997</v>
       </c>
       <c r="F31">
-        <v>128.3780189117295</v>
+        <v>64.189009455864749</v>
       </c>
       <c r="G31">
-        <v>129.4678968330971</v>
+        <v>64.733948416548557</v>
       </c>
       <c r="H31">
-        <v>128.0980553074106</v>
+        <v>64.049027653705281</v>
       </c>
       <c r="I31" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>122.8860325975637</v>
+        <v>61.443016298781863</v>
       </c>
       <c r="C32">
-        <v>126.2058187155735</v>
+        <v>63.10290935778675</v>
       </c>
       <c r="D32">
-        <v>129.608908458138</v>
+        <v>64.804454229069023</v>
       </c>
       <c r="E32">
-        <v>130.0632537755776</v>
+        <v>65.031626887788789</v>
       </c>
       <c r="F32">
-        <v>129.7310565600671</v>
+        <v>64.86552828003353</v>
       </c>
       <c r="G32">
-        <v>128.7240812572684</v>
+        <v>64.362040628634205</v>
       </c>
       <c r="H32" t="s">
         <v>165</v>
@@ -2806,24 +2862,24 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>120.8912921393733</v>
+        <v>60.44564606968666</v>
       </c>
       <c r="C33">
-        <v>125.6367967493166</v>
+        <v>62.818398374658301</v>
       </c>
       <c r="D33">
-        <v>125.3770122543261</v>
+        <v>62.688506127163031</v>
       </c>
       <c r="E33">
-        <v>127.2192566575128</v>
+        <v>63.609628328756394</v>
       </c>
       <c r="F33">
-        <v>125.6198535953107</v>
+        <v>62.809926797655329</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -2835,21 +2891,21 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>124.9126187592231</v>
+        <v>62.456309379611561</v>
       </c>
       <c r="C34">
-        <v>123.8027879344712</v>
+        <v>61.901393967235592</v>
       </c>
       <c r="D34">
-        <v>126.790521610444</v>
+        <v>63.39526080522198</v>
       </c>
       <c r="E34">
-        <v>126.9768239108197</v>
+        <v>63.488411955409873</v>
       </c>
       <c r="F34" t="s">
         <v>165</v>
@@ -2864,18 +2920,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>117.8881882811222</v>
+        <v>58.944094140561113</v>
       </c>
       <c r="C35">
-        <v>123.3844688556283</v>
+        <v>61.692234427814149</v>
       </c>
       <c r="D35">
-        <v>121.9122621289222</v>
+        <v>60.956131064461111</v>
       </c>
       <c r="E35" t="s">
         <v>165</v>
@@ -2893,15 +2949,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>118.8218291316566</v>
+        <v>59.410914565828293</v>
       </c>
       <c r="C36">
-        <v>121.8803816668255</v>
+        <v>60.94019083341275</v>
       </c>
       <c r="D36" t="s">
         <v>165</v>
@@ -2922,12 +2978,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>117.6930944731325</v>
+        <v>58.846547236566273</v>
       </c>
       <c r="C37" t="s">
         <v>165</v>
@@ -2952,6 +3008,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:I37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wip/res/optimal_N3_K2.xlsx
+++ b/wip/res/optimal_N3_K2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tutorial\Desktop\FPL_Python_Optimization\wip\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F8FE6-6C82-4ECE-AC57-69337DC22D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7445A-75CF-41E6-80D1-79B769C27B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,13 +541,1166 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6994CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9D8ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E8F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EEF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC4C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAADAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB7BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA989A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EBADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAD9ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBDC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9DA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAACAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D6EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF2F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEBEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBDBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9D9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA8AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAADB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDDBEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEAED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8EEF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEEF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC9CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD2D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2BDDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE9EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBEC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD0D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E0F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CB8DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFDCEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE6F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F5FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9FAFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD3D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC3C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A4D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD0E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3C8E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF0F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE3E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCED1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD5D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6C97CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B8BC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4BEE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACC4E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFBFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF3F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DA2D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBCEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB7B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCCCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD9DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC5C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99B6DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF1F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE9EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCED0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA3A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAEB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DAED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0DDEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD8DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA4A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA9AC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9AB7DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDAEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDBDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC8CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB8BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729BCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEFF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB5B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA8AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB3B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAABAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA6A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC2E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEFF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCBCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA2A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91B0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FBADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE4F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E4F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCECEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF769DCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94B3DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEDCEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDCDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFAFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC4C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE7E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D98CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5EBF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE5F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE6E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCCFE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFBFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E9F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC5C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2DEF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF1F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEDF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5ECF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB4B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D4EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF3FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE7F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF759DCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AA0D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D4EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F3FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4EBF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB0B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD7DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6F98CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D5EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F6FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6ECF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA5A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA2A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5CAE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFC6E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE2E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBABC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC3C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A8AC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABC3E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DB9DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD1D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA0A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9A9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9295"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D97CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE4F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F5FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAABAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA7AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9C9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EDF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE2E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAAAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9C9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97B7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9193"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBBBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9395"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98587"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97476"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EAFD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9294"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8F91"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FBBDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDCDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAACAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF4F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9EA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9B9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F6FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDADD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF0F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E3F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9CDE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF85A8D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729ACE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -577,10 +1730,589 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="187" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="189" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="191" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,9 +2652,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -962,28 +2694,28 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -991,28 +2723,28 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="17" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1020,28 +2752,28 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1049,28 +2781,28 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="31" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1078,28 +2810,28 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="35" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1107,28 +2839,28 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="44" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1136,28 +2868,28 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1165,28 +2897,28 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="58" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1194,28 +2926,28 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="66" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1223,28 +2955,28 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="72" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1252,28 +2984,28 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="77" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1281,28 +3013,28 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="82" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1310,28 +3042,28 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="88" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1339,28 +3071,28 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="24" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1368,28 +3100,28 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1397,28 +3129,28 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="63" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1426,28 +3158,28 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="108" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1455,28 +3187,28 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1484,28 +3216,28 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="118" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1513,28 +3245,28 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="125" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1542,28 +3274,28 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="76" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1571,28 +3303,28 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="137" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1600,28 +3332,28 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="143" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1629,28 +3361,28 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="148" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1658,28 +3390,28 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="155" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1687,28 +3419,28 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="161" t="s">
         <v>141</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="162" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1716,28 +3448,28 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="168" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1745,28 +3477,28 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="171" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1774,28 +3506,28 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1803,120 +3535,151 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="178" t="s">
         <v>111</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="6" t="s">
         <v>153</v>
       </c>
+      <c r="I31" s="181"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="124" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="188" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="62" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="192" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="127" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="181"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="194" t="s">
         <v>68</v>
       </c>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="180"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,7 +3690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3021,5 +4784,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>